--- a/megatech-clone-admin/src/data/products.xlsx
+++ b/megatech-clone-admin/src/data/products.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8718AA-E85C-4BF2-8F0B-909E485734BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C4DA7-627C-4B5D-9F65-E06E951CDB0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,7 +233,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +533,7 @@
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="177.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="88.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">

--- a/megatech-clone-admin/src/data/products.xlsx
+++ b/megatech-clone-admin/src/data/products.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C4DA7-627C-4B5D-9F65-E06E951CDB0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A064CC-FBD5-4036-9F39-A7F4A6E87D0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>salePrice</t>
-  </si>
-  <si>
-    <t>stock</t>
   </si>
   <si>
     <t>sku</t>
@@ -520,23 +517,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="88.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="88.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,10 +555,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -577,25 +574,22 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>25</v>
@@ -603,14 +597,14 @@
       <c r="F2" s="2">
         <v>20</v>
       </c>
-      <c r="G2" s="2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -624,25 +618,22 @@
       <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="2">
         <v>35</v>
@@ -650,14 +641,14 @@
       <c r="F3" s="2">
         <v>30</v>
       </c>
-      <c r="G3" s="2">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -671,25 +662,22 @@
       <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="2">
         <v>18</v>
@@ -697,14 +685,14 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -718,27 +706,24 @@
       <c r="M4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>47</v>
+      <c r="N4" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O5" s="5"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O6" s="5"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O7" s="5"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="https://res.cloudinary.com/dixl1gf5w/image/upload/v1770987968/products/english-home-2.jpg,https://res.cloudinary.com/dixl1gf5w/image/upload/v1770987968/products/english-home-1.png,https://res.cloudinary.com/dixl1gf5w/image/upload/v1770987968/products/matalan-1.png" xr:uid="{FD853FA5-957D-4FD8-94E6-5802636A9C25}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{938A66C7-7E37-4CC4-AC54-242762950C5E}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{57ED4684-CDFA-47F2-850E-BAA9D2E48169}"/>
+    <hyperlink ref="N2" r:id="rId1" display="https://res.cloudinary.com/dixl1gf5w/image/upload/v1770987968/products/english-home-2.jpg,https://res.cloudinary.com/dixl1gf5w/image/upload/v1770987968/products/english-home-1.png,https://res.cloudinary.com/dixl1gf5w/image/upload/v1770987968/products/matalan-1.png" xr:uid="{FD853FA5-957D-4FD8-94E6-5802636A9C25}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{938A66C7-7E37-4CC4-AC54-242762950C5E}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{57ED4684-CDFA-47F2-850E-BAA9D2E48169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
